--- a/02.pandas/data.xlsx
+++ b/02.pandas/data.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>_name</t>
@@ -451,8 +456,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>shees</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,7 +476,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,7 +494,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,7 +512,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
